--- a/natmiOut/OldD0/LR-pairs_lrc2p/Vwf-Itga2b.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Vwf-Itga2b.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>26.3104219677045</v>
+        <v>28.67276066666667</v>
       </c>
       <c r="H2">
-        <v>26.3104219677045</v>
+        <v>86.018282</v>
       </c>
       <c r="I2">
-        <v>0.954048659130309</v>
+        <v>0.9474462168692853</v>
       </c>
       <c r="J2">
-        <v>0.954048659130309</v>
+        <v>0.9474462168692853</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.0943932567212</v>
+        <v>1.104136666666667</v>
       </c>
       <c r="N2">
-        <v>1.0943932567212</v>
+        <v>3.31241</v>
       </c>
       <c r="O2">
-        <v>0.2798513160455724</v>
+        <v>0.2772362398998524</v>
       </c>
       <c r="P2">
-        <v>0.2798513160455724</v>
+        <v>0.2772362398998525</v>
       </c>
       <c r="Q2">
-        <v>28.79394838294513</v>
+        <v>31.65864638662444</v>
       </c>
       <c r="R2">
-        <v>28.79394838294513</v>
+        <v>284.92781747962</v>
       </c>
       <c r="S2">
-        <v>0.2669917728291307</v>
+        <v>0.2626664266721808</v>
       </c>
       <c r="T2">
-        <v>0.2669917728291307</v>
+        <v>0.2626664266721808</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>26.3104219677045</v>
+        <v>28.67276066666667</v>
       </c>
       <c r="H3">
-        <v>26.3104219677045</v>
+        <v>86.018282</v>
       </c>
       <c r="I3">
-        <v>0.954048659130309</v>
+        <v>0.9474462168692853</v>
       </c>
       <c r="J3">
-        <v>0.954048659130309</v>
+        <v>0.9474462168692853</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.21120158385265</v>
+        <v>2.230986666666666</v>
       </c>
       <c r="N3">
-        <v>2.21120158385265</v>
+        <v>6.692959999999999</v>
       </c>
       <c r="O3">
-        <v>0.5654344720079552</v>
+        <v>0.5601755411317187</v>
       </c>
       <c r="P3">
-        <v>0.5654344720079552</v>
+        <v>0.5601755411317187</v>
       </c>
       <c r="Q3">
-        <v>58.17764672681975</v>
+        <v>63.96854674385777</v>
       </c>
       <c r="R3">
-        <v>58.17764672681975</v>
+        <v>575.71692069472</v>
       </c>
       <c r="S3">
-        <v>0.5394519998452438</v>
+        <v>0.5307361972279516</v>
       </c>
       <c r="T3">
-        <v>0.5394519998452438</v>
+        <v>0.5307361972279516</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>26.3104219677045</v>
+        <v>28.67276066666667</v>
       </c>
       <c r="H4">
-        <v>26.3104219677045</v>
+        <v>86.018282</v>
       </c>
       <c r="I4">
-        <v>0.954048659130309</v>
+        <v>0.9474462168692853</v>
       </c>
       <c r="J4">
-        <v>0.954048659130309</v>
+        <v>0.9474462168692853</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.605029101401765</v>
+        <v>0.647533</v>
       </c>
       <c r="N4">
-        <v>0.605029101401765</v>
+        <v>1.942599</v>
       </c>
       <c r="O4">
-        <v>0.1547142119464725</v>
+        <v>0.1625882189684289</v>
       </c>
       <c r="P4">
-        <v>0.1547142119464725</v>
+        <v>0.1625882189684289</v>
       </c>
       <c r="Q4">
-        <v>15.91857096062151</v>
+        <v>18.56655873276867</v>
       </c>
       <c r="R4">
-        <v>15.91857096062151</v>
+        <v>167.099028594918</v>
       </c>
       <c r="S4">
-        <v>0.1476048864559345</v>
+        <v>0.1540435929691529</v>
       </c>
       <c r="T4">
-        <v>0.1476048864559345</v>
+        <v>0.1540435929691529</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.442843320316841</v>
+        <v>0.7569533333333333</v>
       </c>
       <c r="H5">
-        <v>0.442843320316841</v>
+        <v>2.27086</v>
       </c>
       <c r="I5">
-        <v>0.01605805017006945</v>
+        <v>0.02501233070476559</v>
       </c>
       <c r="J5">
-        <v>0.01605805017006945</v>
+        <v>0.02501233070476559</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.0943932567212</v>
+        <v>1.104136666666667</v>
       </c>
       <c r="N5">
-        <v>1.0943932567212</v>
+        <v>3.31241</v>
       </c>
       <c r="O5">
-        <v>0.2798513160455724</v>
+        <v>0.2772362398998524</v>
       </c>
       <c r="P5">
-        <v>0.2798513160455724</v>
+        <v>0.2772362398998525</v>
       </c>
       <c r="Q5">
-        <v>0.4846447435387772</v>
+        <v>0.8357799302888888</v>
       </c>
       <c r="R5">
-        <v>0.4846447435387772</v>
+        <v>7.522019372599999</v>
       </c>
       <c r="S5">
-        <v>0.004493866473219762</v>
+        <v>0.006934324515720837</v>
       </c>
       <c r="T5">
-        <v>0.004493866473219762</v>
+        <v>0.006934324515720839</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.442843320316841</v>
+        <v>0.7569533333333333</v>
       </c>
       <c r="H6">
-        <v>0.442843320316841</v>
+        <v>2.27086</v>
       </c>
       <c r="I6">
-        <v>0.01605805017006945</v>
+        <v>0.02501233070476559</v>
       </c>
       <c r="J6">
-        <v>0.01605805017006945</v>
+        <v>0.02501233070476559</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.21120158385265</v>
+        <v>2.230986666666666</v>
       </c>
       <c r="N6">
-        <v>2.21120158385265</v>
+        <v>6.692959999999999</v>
       </c>
       <c r="O6">
-        <v>0.5654344720079552</v>
+        <v>0.5601755411317187</v>
       </c>
       <c r="P6">
-        <v>0.5654344720079552</v>
+        <v>0.5601755411317187</v>
       </c>
       <c r="Q6">
-        <v>0.9792158512831652</v>
+        <v>1.688752793955555</v>
       </c>
       <c r="R6">
-        <v>0.9792158512831652</v>
+        <v>15.1987751456</v>
       </c>
       <c r="S6">
-        <v>0.009079775119390471</v>
+        <v>0.01401129588750757</v>
       </c>
       <c r="T6">
-        <v>0.009079775119390471</v>
+        <v>0.01401129588750757</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.442843320316841</v>
+        <v>0.7569533333333333</v>
       </c>
       <c r="H7">
-        <v>0.442843320316841</v>
+        <v>2.27086</v>
       </c>
       <c r="I7">
-        <v>0.01605805017006945</v>
+        <v>0.02501233070476559</v>
       </c>
       <c r="J7">
-        <v>0.01605805017006945</v>
+        <v>0.02501233070476559</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.605029101401765</v>
+        <v>0.647533</v>
       </c>
       <c r="N7">
-        <v>0.605029101401765</v>
+        <v>1.942599</v>
       </c>
       <c r="O7">
-        <v>0.1547142119464725</v>
+        <v>0.1625882189684289</v>
       </c>
       <c r="P7">
-        <v>0.1547142119464725</v>
+        <v>0.1625882189684289</v>
       </c>
       <c r="Q7">
-        <v>0.2679330961530723</v>
+        <v>0.4901522627933333</v>
       </c>
       <c r="R7">
-        <v>0.2679330961530723</v>
+        <v>4.41137036514</v>
       </c>
       <c r="S7">
-        <v>0.002484408577459212</v>
+        <v>0.004066710301537184</v>
       </c>
       <c r="T7">
-        <v>0.002484408577459212</v>
+        <v>0.004066710301537184</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.8243867697767751</v>
+        <v>0.8334926666666668</v>
       </c>
       <c r="H8">
-        <v>0.8243867697767751</v>
+        <v>2.500478</v>
       </c>
       <c r="I8">
-        <v>0.02989329069962153</v>
+        <v>0.02754145242594914</v>
       </c>
       <c r="J8">
-        <v>0.02989329069962153</v>
+        <v>0.02754145242594913</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.0943932567212</v>
+        <v>1.104136666666667</v>
       </c>
       <c r="N8">
-        <v>1.0943932567212</v>
+        <v>3.31241</v>
       </c>
       <c r="O8">
-        <v>0.2798513160455724</v>
+        <v>0.2772362398998524</v>
       </c>
       <c r="P8">
-        <v>0.2798513160455724</v>
+        <v>0.2772362398998525</v>
       </c>
       <c r="Q8">
-        <v>0.902203321773875</v>
+        <v>0.9202898146644445</v>
       </c>
       <c r="R8">
-        <v>0.902203321773875</v>
+        <v>8.282608331980001</v>
       </c>
       <c r="S8">
-        <v>0.008365676743221955</v>
+        <v>0.007635488711950808</v>
       </c>
       <c r="T8">
-        <v>0.008365676743221955</v>
+        <v>0.007635488711950808</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.8243867697767751</v>
+        <v>0.8334926666666668</v>
       </c>
       <c r="H9">
-        <v>0.8243867697767751</v>
+        <v>2.500478</v>
       </c>
       <c r="I9">
-        <v>0.02989329069962153</v>
+        <v>0.02754145242594914</v>
       </c>
       <c r="J9">
-        <v>0.02989329069962153</v>
+        <v>0.02754145242594913</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.21120158385265</v>
+        <v>2.230986666666666</v>
       </c>
       <c r="N9">
-        <v>2.21120158385265</v>
+        <v>6.692959999999999</v>
       </c>
       <c r="O9">
-        <v>0.5654344720079552</v>
+        <v>0.5601755411317187</v>
       </c>
       <c r="P9">
-        <v>0.5654344720079552</v>
+        <v>0.5601755411317187</v>
       </c>
       <c r="Q9">
-        <v>1.822885331037575</v>
+        <v>1.859511026097778</v>
       </c>
       <c r="R9">
-        <v>1.822885331037575</v>
+        <v>16.73559923488</v>
       </c>
       <c r="S9">
-        <v>0.01690269704332082</v>
+        <v>0.01542804801625955</v>
       </c>
       <c r="T9">
-        <v>0.01690269704332082</v>
+        <v>0.01542804801625954</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.8243867697767751</v>
+        <v>0.8334926666666668</v>
       </c>
       <c r="H10">
-        <v>0.8243867697767751</v>
+        <v>2.500478</v>
       </c>
       <c r="I10">
-        <v>0.02989329069962153</v>
+        <v>0.02754145242594914</v>
       </c>
       <c r="J10">
-        <v>0.02989329069962153</v>
+        <v>0.02754145242594913</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.605029101401765</v>
+        <v>0.647533</v>
       </c>
       <c r="N10">
-        <v>0.605029101401765</v>
+        <v>1.942599</v>
       </c>
       <c r="O10">
-        <v>0.1547142119464725</v>
+        <v>0.1625882189684289</v>
       </c>
       <c r="P10">
-        <v>0.1547142119464725</v>
+        <v>0.1625882189684289</v>
       </c>
       <c r="Q10">
-        <v>0.4987779865255459</v>
+        <v>0.5397140069246668</v>
       </c>
       <c r="R10">
-        <v>0.4987779865255459</v>
+        <v>4.857426062322</v>
       </c>
       <c r="S10">
-        <v>0.004624916913078761</v>
+        <v>0.004477915697738785</v>
       </c>
       <c r="T10">
-        <v>0.004624916913078761</v>
+        <v>0.004477915697738784</v>
       </c>
     </row>
   </sheetData>
